--- a/CVX_Kenya/Optimization/ Shading_prod.xlsx
+++ b/CVX_Kenya/Optimization/ Shading_prod.xlsx
@@ -679,16 +679,16 @@
       </c>
       <c r="B4" s="1"/>
       <c r="H4">
-        <v>0.9999998649582267</v>
+        <v>537.4999277656898</v>
       </c>
       <c r="I4">
         <v>0.235023214481771</v>
       </c>
       <c r="J4">
-        <v>0.2350232462197269</v>
+        <v>0.0004372525508212231</v>
       </c>
       <c r="K4">
-        <v>4.254898254043705</v>
+        <v>2287.007813040442</v>
       </c>
       <c r="L4">
         <v>0.01078469050116837</v>
@@ -709,40 +709,40 @@
         <v>0.02653255593031645</v>
       </c>
       <c r="R4">
-        <v>0.0001031928404700011</v>
+        <v>0.0554661538626533</v>
       </c>
       <c r="S4">
-        <v>0.003575697312044213</v>
+        <v>1.921937303022787</v>
       </c>
       <c r="T4">
-        <v>2.09816062124446e-06</v>
+        <v>0.001127761605857813</v>
       </c>
       <c r="U4">
-        <v>0.7820848615374416</v>
+        <v>420.3706129777711</v>
       </c>
       <c r="V4">
-        <v>0.03580205515027046</v>
+        <v>19.24360468704253</v>
       </c>
       <c r="W4">
-        <v>0.05140745220705867</v>
+        <v>27.63150571403094</v>
       </c>
       <c r="X4">
-        <v>-0.01068149766069837</v>
+        <v>0.04468146336148493</v>
       </c>
       <c r="Y4">
-        <v>0.003408076518098824</v>
+        <v>1.921769682228842</v>
       </c>
       <c r="Z4">
-        <v>-0.001125461618357804</v>
+        <v>2.018268787651323e-07</v>
       </c>
       <c r="AA4">
-        <v>0.7614013745915145</v>
+        <v>420.3499294908252</v>
       </c>
       <c r="AB4">
-        <v>0.009269499219954014</v>
+        <v>19.21707213111222</v>
       </c>
       <c r="AC4">
-        <v>0.04298779345117509</v>
+        <v>27.62308605527505</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -751,16 +751,16 @@
       </c>
       <c r="B5" s="1"/>
       <c r="H5">
-        <v>0.9999998649582267</v>
+        <v>537.4999277656898</v>
       </c>
       <c r="I5">
         <v>0.1880185808986425</v>
       </c>
       <c r="J5">
-        <v>0.1880186062890085</v>
+        <v>0.0003498020579839124</v>
       </c>
       <c r="K5">
-        <v>5.31862255410442</v>
+        <v>2858.759624696063</v>
       </c>
       <c r="L5">
         <v>0.008627752758911811</v>
@@ -781,40 +781,40 @@
         <v>0.02122604567557573</v>
       </c>
       <c r="R5">
-        <v>0.0001031928404700011</v>
+        <v>0.0554661538626533</v>
       </c>
       <c r="S5">
-        <v>0.003575697312044213</v>
+        <v>1.921937303022787</v>
       </c>
       <c r="T5">
-        <v>2.09816062124446e-06</v>
+        <v>0.001127761605857813</v>
       </c>
       <c r="U5">
-        <v>0.7820848615374416</v>
+        <v>420.3706129777711</v>
       </c>
       <c r="V5">
-        <v>0.03580205515027046</v>
+        <v>19.24360468704253</v>
       </c>
       <c r="W5">
-        <v>0.05140745220705867</v>
+        <v>27.63150571403094</v>
       </c>
       <c r="X5">
-        <v>-0.00852455991844181</v>
+        <v>0.04683840110374149</v>
       </c>
       <c r="Y5">
-        <v>0.003441600674705114</v>
+        <v>1.921803206385448</v>
       </c>
       <c r="Z5">
-        <v>-0.000899949702215963</v>
+        <v>0.0002257137430206058</v>
       </c>
       <c r="AA5">
-        <v>0.7655380715150386</v>
+        <v>420.3540661877487</v>
       </c>
       <c r="AB5">
-        <v>0.01457600947469473</v>
+        <v>19.22237864136696</v>
       </c>
       <c r="AC5">
-        <v>0.04467172524891794</v>
+        <v>27.6247699870728</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -823,16 +823,16 @@
       </c>
       <c r="B6" s="1"/>
       <c r="H6">
-        <v>0.9999998649582267</v>
+        <v>537.4999277656898</v>
       </c>
       <c r="I6">
         <v>0.1410139426589012</v>
       </c>
       <c r="J6">
-        <v>0.1410139617016767</v>
+        <v>0.0002623515564831348</v>
       </c>
       <c r="K6">
-        <v>7.091496387538979</v>
+        <v>3811.679310788785</v>
       </c>
       <c r="L6">
         <v>0.006470814885688014</v>
@@ -853,40 +853,40 @@
         <v>0.01591953495517373</v>
       </c>
       <c r="R6">
-        <v>0.0001031928404700011</v>
+        <v>0.0554661538626533</v>
       </c>
       <c r="S6">
-        <v>0.003575697312044213</v>
+        <v>1.921937303022787</v>
       </c>
       <c r="T6">
-        <v>2.09816062124446e-06</v>
+        <v>0.001127761605857813</v>
       </c>
       <c r="U6">
-        <v>0.7820848615374416</v>
+        <v>420.3706129777711</v>
       </c>
       <c r="V6">
-        <v>0.03580205515027046</v>
+        <v>19.24360468704253</v>
       </c>
       <c r="W6">
-        <v>0.05140745220705867</v>
+        <v>27.63150571403094</v>
       </c>
       <c r="X6">
-        <v>-0.006367622045218013</v>
+        <v>0.04899533897696529</v>
       </c>
       <c r="Y6">
-        <v>0.003475124829492415</v>
+        <v>1.921836730540235</v>
       </c>
       <c r="Z6">
-        <v>-0.0006744377678842284</v>
+        <v>0.0004512256773523404</v>
       </c>
       <c r="AA6">
-        <v>0.7696747686713934</v>
+        <v>420.358202884905</v>
       </c>
       <c r="AB6">
-        <v>0.01988252019509673</v>
+        <v>19.22768515208736</v>
       </c>
       <c r="AC6">
-        <v>0.04635565658099949</v>
+        <v>27.62645391840488</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -895,16 +895,16 @@
       </c>
       <c r="B7" s="1"/>
       <c r="H7">
-        <v>0.9999998649582267</v>
+        <v>537.4999277656898</v>
       </c>
       <c r="I7">
         <v>0.09400929976254702</v>
       </c>
       <c r="J7">
-        <v>0.09400931245773128</v>
+        <v>0.0001749010463188901</v>
       </c>
       <c r="K7">
-        <v>10.63724405440815</v>
+        <v>5717.518682974255</v>
       </c>
       <c r="L7">
         <v>0.004313876779633574</v>
@@ -925,40 +925,40 @@
         <v>0.01061302376911044</v>
       </c>
       <c r="R7">
-        <v>0.0001031928404700011</v>
+        <v>0.0554661538626533</v>
       </c>
       <c r="S7">
-        <v>0.003575697312044213</v>
+        <v>1.921937303022787</v>
       </c>
       <c r="T7">
-        <v>2.09816062124446e-06</v>
+        <v>0.001127761605857813</v>
       </c>
       <c r="U7">
-        <v>0.7820848615374416</v>
+        <v>420.3706129777711</v>
       </c>
       <c r="V7">
-        <v>0.03580205515027046</v>
+        <v>19.24360468704253</v>
       </c>
       <c r="W7">
-        <v>0.05140745220705867</v>
+        <v>27.63150571403094</v>
       </c>
       <c r="X7">
-        <v>-0.004210683939163573</v>
+        <v>0.05115227708301973</v>
       </c>
       <c r="Y7">
-        <v>0.003508648986098706</v>
+        <v>1.921870254696842</v>
       </c>
       <c r="Z7">
-        <v>-0.0004489258126341156</v>
+        <v>0.0006767376326024532</v>
       </c>
       <c r="AA7">
-        <v>0.7738114658277482</v>
+        <v>420.3623395820614</v>
       </c>
       <c r="AB7">
-        <v>0.02518903138116002</v>
+        <v>19.23299166327342</v>
       </c>
       <c r="AC7">
-        <v>0.04803958768025041</v>
+        <v>27.62813784950413</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -967,16 +967,16 @@
       </c>
       <c r="B8" s="1"/>
       <c r="H8">
-        <v>0.9999998649582267</v>
+        <v>537.4999277656898</v>
       </c>
       <c r="I8">
         <v>0.04700465220957994</v>
       </c>
       <c r="J8">
-        <v>0.04700465855717239</v>
+        <v>8.745052749117856e-05</v>
       </c>
       <c r="K8">
-        <v>21.27448705501576</v>
+        <v>11435.03679953072</v>
       </c>
       <c r="L8">
         <v>0.002156938455300406</v>
@@ -997,40 +997,40 @@
         <v>0.005306512117385864</v>
       </c>
       <c r="R8">
-        <v>0.0001031928404700011</v>
+        <v>0.0554661538626533</v>
       </c>
       <c r="S8">
-        <v>0.003575697312044213</v>
+        <v>1.921937303022787</v>
       </c>
       <c r="T8">
-        <v>2.09816062124446e-06</v>
+        <v>0.001127761605857813</v>
       </c>
       <c r="U8">
-        <v>0.7820848615374416</v>
+        <v>420.3706129777711</v>
       </c>
       <c r="V8">
-        <v>0.03580205515027046</v>
+        <v>19.24360468704253</v>
       </c>
       <c r="W8">
-        <v>0.05140745220705867</v>
+        <v>27.63150571403094</v>
       </c>
       <c r="X8">
-        <v>-0.002053745614830405</v>
+        <v>0.05330921540735289</v>
       </c>
       <c r="Y8">
-        <v>0.003542173153618933</v>
+        <v>1.921903778864362</v>
       </c>
       <c r="Z8">
-        <v>-0.0002234138364656246</v>
+        <v>0.0009022496087709442</v>
       </c>
       <c r="AA8">
-        <v>0.7779481636825949</v>
+        <v>420.3664762799162</v>
       </c>
       <c r="AB8">
-        <v>0.0304955430328846</v>
+        <v>19.23829817492515</v>
       </c>
       <c r="AC8">
-        <v>0.04972351994365454</v>
+        <v>27.62982178176753</v>
       </c>
     </row>
   </sheetData>
